--- a/data/EnemySkillsConfig.xlsx
+++ b/data/EnemySkillsConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\projectRes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workAndStudy\CocosCreator\FormalProject\lgyyxyres\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D30C102-28D7-436E-B730-873F96CFD4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03F7E58-B363-46A1-92F1-C7FC2570E555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="4440" windowWidth="34875" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16890" yWindow="3105" windowWidth="23130" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>string</t>
   </si>
@@ -28,59 +28,77 @@
     <t>id</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>type</t>
+    <t>enemy_skill_002</t>
+  </si>
+  <si>
+    <t>enemy_skill_003</t>
+  </si>
+  <si>
+    <t>enemy_skill_004</t>
+  </si>
+  <si>
+    <t>enemy_skill_005</t>
+  </si>
+  <si>
+    <t>enemy_skill_006</t>
+  </si>
+  <si>
+    <t>enemy_skill_007</t>
+  </si>
+  <si>
+    <t>enemy_skill_008</t>
+  </si>
+  <si>
+    <t>enemy_skill_009</t>
+  </si>
+  <si>
+    <t>enemy_skill_010</t>
+  </si>
+  <si>
+    <t>enemy_skill_011</t>
+  </si>
+  <si>
+    <t>enemy_skill_012</t>
+  </si>
+  <si>
+    <t>enemy_skill_013</t>
+  </si>
+  <si>
+    <t>enemy_skill_014</t>
+  </si>
+  <si>
+    <t>enemy_skill_015</t>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击玩家，造成${factor}点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>enemy_skill_001</t>
-  </si>
-  <si>
-    <t>enemy_skill_002</t>
-  </si>
-  <si>
-    <t>enemy_skill_003</t>
-  </si>
-  <si>
-    <t>enemy_skill_004</t>
-  </si>
-  <si>
-    <t>enemy_skill_005</t>
-  </si>
-  <si>
-    <t>enemy_skill_006</t>
-  </si>
-  <si>
-    <t>enemy_skill_007</t>
-  </si>
-  <si>
-    <t>enemy_skill_008</t>
-  </si>
-  <si>
-    <t>enemy_skill_009</t>
-  </si>
-  <si>
-    <t>enemy_skill_010</t>
-  </si>
-  <si>
-    <t>enemy_skill_011</t>
-  </si>
-  <si>
-    <t>enemy_skill_012</t>
-  </si>
-  <si>
-    <t>enemy_skill_013</t>
-  </si>
-  <si>
-    <t>enemy_skill_014</t>
-  </si>
-  <si>
-    <t>enemy_skill_015</t>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["attack"]</t>
   </si>
 </sst>
 </file>
@@ -131,9 +149,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -409,115 +433,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="47.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
